--- a/tests/test_data/test_mock_pipeline_prototype.xlsx
+++ b/tests/test_data/test_mock_pipeline_prototype.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kikstra\Documents\GitHub\aneris\tests\test_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873B920A-B872-45E8-8CAC-838E1C02C845}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="18675" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -55,16 +49,16 @@
     <t>prefix|Emissions|BC|Harmonized-DB</t>
   </si>
   <si>
+    <t>prefix|Emissions|BC|sector1|Harmonized-DB</t>
+  </si>
+  <si>
+    <t>prefix|Emissions|BC|setcor2|Harmonized-DB</t>
+  </si>
+  <si>
+    <t>prefix|Emissions|Sulfur|Harmonized-DB</t>
+  </si>
+  <si>
     <t>Mt BC/yr</t>
-  </si>
-  <si>
-    <t>prefix|Emissions|BC|sector1|Harmonized-DB</t>
-  </si>
-  <si>
-    <t>prefix|Emissions|BC|setcor2|Harmonized-DB</t>
-  </si>
-  <si>
-    <t>prefix|Emissions|Sulfur|Harmonized-DB</t>
   </si>
   <si>
     <t>Mt SO2/yr</t>
@@ -73,8 +67,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,14 +131,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -191,7 +177,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,27 +209,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -275,24 +243,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -468,16 +418,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -500,7 +448,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -514,7 +462,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F2">
         <v>35</v>
@@ -523,7 +471,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -534,19 +482,19 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <v>20</v>
       </c>
       <c r="G3">
-        <v>22.857142857142851</v>
+        <v>22.93333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -557,19 +505,19 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F4">
         <v>15</v>
       </c>
       <c r="G4">
-        <v>17.142857142857139</v>
+        <v>17.06666666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -580,7 +528,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -589,7 +537,7 @@
         <v>15</v>
       </c>
       <c r="G5">
-        <v>17.142857142857149</v>
+        <v>17.6</v>
       </c>
     </row>
   </sheetData>
